--- a/data som.xlsx
+++ b/data som.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Semester 3\Data Mining\Alogaritma-SOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA413626-6548-419C-B401-2430A4EEED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF57117-AAB8-4C4B-960D-522BFB824108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Value1</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>0.01234</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -361,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -473,6 +491,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,8 +554,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,51 +914,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
         <v>237890</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>123098</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
         <v>228900</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
         <v>94521</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
